--- a/79anvi/evidence.xlsx
+++ b/79anvi/evidence.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" state="visible" r:id="rId2"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="48">
   <si>
     <t xml:space="preserve">TeamName</t>
   </si>
@@ -124,34 +124,55 @@
     <t xml:space="preserve">ClassID</t>
   </si>
   <si>
-    <t xml:space="preserve">tx hash on irisnet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">class id you issued</t>
+    <t xml:space="preserve">A79C5848B9205936713DE09697B5B6919F514EBD839F2F3D33D2040A2F600F3C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anvi79gon3</t>
   </si>
   <si>
     <t xml:space="preserve">NFTID</t>
   </si>
   <si>
-    <t xml:space="preserve">nft id you minted</t>
+    <t xml:space="preserve">A1FDF5305A5ECFD765FB052063FE4218EC45FF914995554F4443D227F909DCF7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anvi79gon001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A342FD8A2537D4D2DF64739F319FB08DD92B38B0F73AC9DB5AF8F45F1998865F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anvi79gon002</t>
   </si>
   <si>
     <t xml:space="preserve">ChainID</t>
   </si>
   <si>
-    <t xml:space="preserve">ibc class on dest chain</t>
+    <t xml:space="preserve">79D9180100D43E20C8E62F13C565F21D35CD647BF9841F739A250B0A538102B1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uni-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84B2C9EF8E073DFBE5FAB11673C05DA2F050842265C16AD2A556C3247DA4FAA5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uptick_7000-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCF6F4D9770AF09498352B26AF0A6A2292B4BFAF739339AB3F311E09DB0C3B14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gon-irishub-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tx hash on dest chain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ibc class on chain</t>
   </si>
   <si>
     <t xml:space="preserve">nft id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dest chain id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tx hash on dest chain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ibc class on chain</t>
   </si>
   <si>
     <t xml:space="preserve">tx hash on that chain</t>
@@ -375,15 +396,15 @@
   </sheetPr>
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="40.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="40.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="40.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="40.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="40.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="43.63"/>
@@ -490,7 +511,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
   </cols>
@@ -505,10 +526,10 @@
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -533,7 +554,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
   </cols>
@@ -548,10 +569,10 @@
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -576,7 +597,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
   </cols>
@@ -591,10 +612,10 @@
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -619,7 +640,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
   </cols>
@@ -634,10 +655,10 @@
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -662,7 +683,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
   </cols>
@@ -672,25 +693,25 @@
         <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -715,7 +736,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
   </cols>
@@ -725,25 +746,25 @@
         <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -768,7 +789,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
   </cols>
@@ -778,25 +799,25 @@
         <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -821,7 +842,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
   </cols>
@@ -831,25 +852,25 @@
         <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -874,7 +895,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
   </cols>
@@ -884,25 +905,25 @@
         <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -927,7 +948,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
   </cols>
@@ -937,25 +958,25 @@
         <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -974,84 +995,85 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="17.88"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="17.88"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>25</v>
+  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1076,7 +1098,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
   </cols>
@@ -1086,25 +1108,25 @@
         <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1129,7 +1151,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1138,12 +1160,12 @@
     </row>
     <row r="2" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1168,7 +1190,7 @@
       <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1177,12 +1199,12 @@
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1207,7 +1229,7 @@
       <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1216,12 +1238,12 @@
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1246,7 +1268,7 @@
       <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1255,12 +1277,12 @@
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1279,13 +1301,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="17.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16"/>
@@ -1302,17 +1324,29 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="4" t="s">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
+      <c r="C2" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1329,13 +1363,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="17.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16"/>
@@ -1352,23 +1386,25 @@
         <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="0" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
+      <c r="D2" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1385,13 +1421,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="17.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16"/>
@@ -1408,23 +1444,24 @@
         <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
+      <c r="D2" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1441,13 +1478,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="17.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16"/>
@@ -1464,23 +1501,24 @@
         <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="0" t="s">
         <v>32</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1499,11 +1537,11 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16"/>
@@ -1522,35 +1560,78 @@
         <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="0" t="s">
         <v>30</v>
       </c>
+      <c r="D2" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1561,7 +1642,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
   </cols>
@@ -1576,53 +1657,10 @@
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/79anvi/evidence.xlsx
+++ b/79anvi/evidence.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" state="visible" r:id="rId2"/>
@@ -166,7 +166,7 @@
     <t xml:space="preserve">gon-irishub-1</t>
   </si>
   <si>
-    <t xml:space="preserve">tx hash on dest chain</t>
+    <t xml:space="preserve">644130DDB8BCD3F359B80CC567571BB126304246FC2A8C6A3BFE4004698393E3</t>
   </si>
   <si>
     <t xml:space="preserve">ibc class on chain</t>
@@ -400,7 +400,7 @@
       <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="40.85"/>
@@ -511,7 +511,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
   </cols>
@@ -554,7 +554,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
   </cols>
@@ -597,7 +597,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
   </cols>
@@ -640,7 +640,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
   </cols>
@@ -683,7 +683,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
   </cols>
@@ -736,7 +736,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
   </cols>
@@ -789,7 +789,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
   </cols>
@@ -842,7 +842,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
   </cols>
@@ -895,7 +895,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
   </cols>
@@ -948,7 +948,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
   </cols>
@@ -997,11 +997,11 @@
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="17.88"/>
   </cols>
@@ -1045,7 +1045,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
   </cols>
@@ -1098,7 +1098,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
   </cols>
@@ -1151,7 +1151,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1190,7 +1190,7 @@
       <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1229,7 +1229,7 @@
       <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1268,7 +1268,7 @@
       <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1307,7 +1307,7 @@
       <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="17.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16"/>
@@ -1369,7 +1369,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="17.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16"/>
@@ -1427,7 +1427,7 @@
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="17.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16"/>
@@ -1484,7 +1484,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="17.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16"/>
@@ -1537,11 +1537,11 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16"/>
@@ -1599,7 +1599,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
   </cols>
@@ -1642,7 +1642,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
   </cols>
